--- a/biology/Virologie/Virus_leucémogène_félin/Virus_leucémogène_félin.xlsx
+++ b/biology/Virologie/Virus_leucémogène_félin/Virus_leucémogène_félin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_leuc%C3%A9mog%C3%A8ne_f%C3%A9lin</t>
+          <t>Virus_leucémogène_félin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Feline leukemia virus
 Le Virus leucémogène félin, aussi appelé virus de la leucose féline ou FeLV, Feline leukemia virus, est une espèce de virus de la famille des Retroviridae et du genre Gammaretrovirus, impliqué dans la leucose féline, une maladie affectant les félidés.
